--- a/Testing Coca-Cola y Chicos.Net/Contactos Nahual/Issues-Contactos-V1-Carolina-Pena.xlsx
+++ b/Testing Coca-Cola y Chicos.Net/Contactos Nahual/Issues-Contactos-V1-Carolina-Pena.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carop\OneDrive\Escritorio\carpeta caro\portfolio testing\Testing Coca-Cola y Chicos.Net\Contactos Nahual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBCCAE3-CDC4-4A0B-9ADD-6D6A66DFF383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC3988-34B5-4F5A-BBD3-73C4E40F8443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -454,18 +454,19 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,7 +492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -515,7 +516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -539,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -563,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -587,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -611,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -635,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -659,7 +660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -683,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -707,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
